--- a/MTN_output/medical_healthcare_v1.0_MTN.xlsx
+++ b/MTN_output/medical_healthcare_v1.0_MTN.xlsx
@@ -5,15 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Medical_Occupations" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Healthcare_2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Med_Tech" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Healthcare" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="&lt;-- Already processed" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Medical_Terms" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Medical_Terms" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -14012,33 +14011,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
